--- a/ExcelSheets/GADDS_560.xlsx
+++ b/ExcelSheets/GADDS_560.xlsx
@@ -457,31 +457,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3305687016936587</v>
+        <v>0.3305828111802901</v>
       </c>
       <c r="C2">
-        <v>37.42475916010252</v>
+        <v>37.42476152634273</v>
       </c>
       <c r="D2">
-        <v>38.56255635793152</v>
+        <v>38.5355866012866</v>
       </c>
       <c r="E2">
-        <v>0.6242498278778745</v>
+        <v>0.6228794092793825</v>
       </c>
       <c r="F2">
-        <v>2.400990158384853</v>
+        <v>2.40099001201456</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2">
-        <v>0.004258292556549725</v>
+        <v>0.004258474021574921</v>
       </c>
       <c r="I2">
-        <v>2.61691422817255</v>
+        <v>2.616914387706117</v>
       </c>
       <c r="J2">
-        <v>0.01022411851979936</v>
+        <v>0.01022455359222486</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -489,31 +489,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5474051960745463</v>
+        <v>0.5475095672354237</v>
       </c>
       <c r="C3">
-        <v>43.47753308037519</v>
+        <v>43.47755643599634</v>
       </c>
       <c r="D3">
-        <v>60.67163137750551</v>
+        <v>60.63906457324772</v>
       </c>
       <c r="E3">
-        <v>0.7455790426315532</v>
+        <v>0.7443684025304345</v>
       </c>
       <c r="F3">
-        <v>2.079728166144113</v>
+        <v>2.07972710306958</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
       <c r="H3">
-        <v>0.005990249038483527</v>
+        <v>0.005991387621478344</v>
       </c>
       <c r="I3">
-        <v>3.021156999969291</v>
+        <v>3.021158544265687</v>
       </c>
       <c r="J3">
-        <v>0.01245808964755188</v>
+        <v>0.0124604512213841</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -521,31 +521,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5749551040075516</v>
+        <v>0.5749273586390273</v>
       </c>
       <c r="C4">
-        <v>63.18298363023265</v>
+        <v>63.18298772035683</v>
       </c>
       <c r="D4">
-        <v>43.15064467209752</v>
+        <v>43.16812859780558</v>
       </c>
       <c r="E4">
-        <v>0.6182444318225444</v>
+        <v>0.6190824012206978</v>
       </c>
       <c r="F4">
-        <v>1.470394474603492</v>
+        <v>1.470394389265389</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4">
-        <v>0.004079215037065325</v>
+        <v>0.004079017861811886</v>
       </c>
       <c r="I4">
-        <v>4.273129024695169</v>
+        <v>4.273129272697153</v>
       </c>
       <c r="J4">
-        <v>0.005998055251220334</v>
+        <v>0.005997764977721502</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -553,31 +553,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.888679179343712</v>
+        <v>0.8887865498414609</v>
       </c>
       <c r="C5">
-        <v>75.75358158715855</v>
+        <v>75.75357014245394</v>
       </c>
       <c r="D5">
-        <v>21.44662436946272</v>
+        <v>21.50758774194055</v>
       </c>
       <c r="E5">
-        <v>0.7419141422690242</v>
+        <v>0.7465578419755142</v>
       </c>
       <c r="F5">
-        <v>1.254598161709592</v>
+        <v>1.254598322801187</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5">
-        <v>0.004985154077421384</v>
+        <v>0.004985757412796892</v>
       </c>
       <c r="I5">
-        <v>5.008125708248877</v>
+        <v>5.00812506520086</v>
       </c>
       <c r="J5">
-        <v>0.006254365141371943</v>
+        <v>0.006255122887988566</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7214225728972312</v>
+        <v>0.7212154606880224</v>
       </c>
       <c r="C6">
-        <v>79.85668157348593</v>
+        <v>79.85667942934701</v>
       </c>
       <c r="D6">
-        <v>14.62591069688179</v>
+        <v>14.69000413356014</v>
       </c>
       <c r="E6">
-        <v>0.8272397683320876</v>
+        <v>0.8347884201535608</v>
       </c>
       <c r="F6">
-        <v>1.200132701350709</v>
+        <v>1.200132728180629</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6">
-        <v>0.003760944381074844</v>
+        <v>0.003759864799688132</v>
       </c>
       <c r="I6">
-        <v>5.235408801133469</v>
+        <v>5.235408684091747</v>
       </c>
       <c r="J6">
-        <v>0.004513632339689122</v>
+        <v>0.004512336799640032</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -617,31 +617,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.133365410127356</v>
+        <v>1.153155242562667</v>
       </c>
       <c r="C7">
-        <v>95.63406235534153</v>
+        <v>95.63353871978289</v>
       </c>
       <c r="D7">
-        <v>6.872215125162784</v>
+        <v>7.000369337135607</v>
       </c>
       <c r="E7">
-        <v>0.9999999337201604</v>
+        <v>0.9999998120868538</v>
       </c>
       <c r="F7">
-        <v>1.039508232378373</v>
+        <v>1.039512536979224</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7">
-        <v>0.004481391524608784</v>
+        <v>0.004559683525441192</v>
       </c>
       <c r="I7">
-        <v>6.044382441112361</v>
+        <v>6.04435741144425</v>
       </c>
       <c r="J7">
-        <v>0.0046584433823415</v>
+        <v>0.004739848189353745</v>
       </c>
     </row>
   </sheetData>
@@ -691,31 +691,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2330539388349027</v>
+        <v>0.2333359883904139</v>
       </c>
       <c r="C2">
-        <v>37.4247416501543</v>
+        <v>37.42474401895903</v>
       </c>
       <c r="D2">
-        <v>39.32953085696654</v>
+        <v>39.30138647333631</v>
       </c>
       <c r="E2">
-        <v>0.8442973737079196</v>
+        <v>0.8414206049509849</v>
       </c>
       <c r="F2">
-        <v>2.400990158384853</v>
+        <v>2.40099001201456</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2">
-        <v>0.003002136460557876</v>
+        <v>0.003005769540533628</v>
       </c>
       <c r="I2">
-        <v>2.616913047639581</v>
+        <v>2.616913207346057</v>
       </c>
       <c r="J2">
-        <v>0.007208100095927795</v>
+        <v>0.007216822645238835</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -723,31 +723,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4813197422793203</v>
+        <v>0.4815275750206797</v>
       </c>
       <c r="C3">
-        <v>43.47745055317559</v>
+        <v>43.47747395443719</v>
       </c>
       <c r="D3">
-        <v>59.8696074744281</v>
+        <v>59.83936648958005</v>
       </c>
       <c r="E3">
-        <v>0.7825854896902986</v>
+        <v>0.7810831980515607</v>
       </c>
       <c r="F3">
-        <v>2.079728166144113</v>
+        <v>2.07972710306958</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
       <c r="H3">
-        <v>0.005267087670480802</v>
+        <v>0.005269358858819112</v>
       </c>
       <c r="I3">
-        <v>3.021151543189556</v>
+        <v>3.021153090504185</v>
       </c>
       <c r="J3">
-        <v>0.01095411058184931</v>
+        <v>0.0109588284344859</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -755,31 +755,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4984292498233633</v>
+        <v>0.4983306852804042</v>
       </c>
       <c r="C4">
-        <v>63.18286363915534</v>
+        <v>63.18286765336526</v>
       </c>
       <c r="D4">
-        <v>42.83743824741467</v>
+        <v>42.8541593346692</v>
       </c>
       <c r="E4">
-        <v>0.6464731840413069</v>
+        <v>0.647535676532329</v>
       </c>
       <c r="F4">
-        <v>1.470394474603492</v>
+        <v>1.470394389265389</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4">
-        <v>0.003536284568591824</v>
+        <v>0.003535584989633265</v>
       </c>
       <c r="I4">
-        <v>4.27312174911282</v>
+        <v>4.273121992511951</v>
       </c>
       <c r="J4">
-        <v>0.005199733290283014</v>
+        <v>0.005198704331527681</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -787,31 +787,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8116329931376932</v>
+        <v>0.8113654706356966</v>
       </c>
       <c r="C5">
-        <v>75.75313475187248</v>
+        <v>75.75312133297616</v>
       </c>
       <c r="D5">
-        <v>20.99201128078017</v>
+        <v>21.04800845992976</v>
       </c>
       <c r="E5">
-        <v>0.7576929862440434</v>
+        <v>0.7630173796582246</v>
       </c>
       <c r="F5">
-        <v>1.254598161709592</v>
+        <v>1.254598322801187</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5">
-        <v>0.004552990747578144</v>
+        <v>0.004551491135252135</v>
       </c>
       <c r="I5">
-        <v>5.00810060170586</v>
+        <v>5.008099847730884</v>
       </c>
       <c r="J5">
-        <v>0.005712173822192319</v>
+        <v>0.005710293144531801</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -819,31 +819,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6115095697608043</v>
+        <v>0.6101448799697962</v>
       </c>
       <c r="C6">
-        <v>79.85637018064054</v>
+        <v>79.85636665802031</v>
       </c>
       <c r="D6">
-        <v>14.37684575651466</v>
+        <v>14.43478859770903</v>
       </c>
       <c r="E6">
-        <v>0.8981731372657461</v>
+        <v>0.9078852813985762</v>
       </c>
       <c r="F6">
-        <v>1.200132701350709</v>
+        <v>1.200132728180629</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6">
-        <v>0.003187959823527954</v>
+        <v>0.003180845536273711</v>
       </c>
       <c r="I6">
-        <v>5.235391803169588</v>
+        <v>5.235391610880519</v>
       </c>
       <c r="J6">
-        <v>0.003825974834808133</v>
+        <v>0.003817436831369345</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -851,31 +851,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.029308865022849</v>
+        <v>1.050090254867394</v>
       </c>
       <c r="C7">
-        <v>95.63278683560183</v>
+        <v>95.63221118118408</v>
       </c>
       <c r="D7">
-        <v>6.561925422030968</v>
+        <v>6.683332714434424</v>
       </c>
       <c r="E7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="F7">
-        <v>1.039508232378373</v>
+        <v>1.039512536979224</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7">
-        <v>0.00407003705162861</v>
+        <v>0.00415225161159657</v>
       </c>
       <c r="I7">
-        <v>6.044321471319902</v>
+        <v>6.044293954816537</v>
       </c>
       <c r="J7">
-        <v>0.004230837021252942</v>
+        <v>0.004316317606946821</v>
       </c>
     </row>
   </sheetData>
